--- a/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B13-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>353860</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>327586</v>
+        <v>328394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>380597</v>
+        <v>383683</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4744873522353467</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.439256571831505</v>
+        <v>0.4403398250312804</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.510339597826088</v>
+        <v>0.5144769612613161</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>484</v>
@@ -763,19 +763,19 @@
         <v>552492</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>517362</v>
+        <v>519743</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>582441</v>
+        <v>584084</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5622079749970086</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5264594452546599</v>
+        <v>0.5288823691929102</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5926834261872089</v>
+        <v>0.5943549863088337</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>852</v>
@@ -784,19 +784,19 @@
         <v>906352</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>860707</v>
+        <v>864917</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>944548</v>
+        <v>952351</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5243601527786285</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4979526182239447</v>
+        <v>0.500388509084069</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5464583794643725</v>
+        <v>0.5509724771536814</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>184169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>160158</v>
+        <v>163339</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>208314</v>
+        <v>208096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2469504388689971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2147541872001461</v>
+        <v>0.2190202292295094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2793257228321213</v>
+        <v>0.2790338176240548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>207</v>
@@ -834,19 +834,19 @@
         <v>227629</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201148</v>
+        <v>200397</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>256435</v>
+        <v>254732</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2316318204354084</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2046853981535931</v>
+        <v>0.2039208704784618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2609448560691155</v>
+        <v>0.2592111105946844</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>393</v>
@@ -855,19 +855,19 @@
         <v>411798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>375649</v>
+        <v>373993</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>447780</v>
+        <v>448410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.238241170994637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2173276568276742</v>
+        <v>0.2163693760475244</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2590582229630528</v>
+        <v>0.2594228259245306</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>139258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>119779</v>
+        <v>119598</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161126</v>
+        <v>161433</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1867301803336343</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1606102821951728</v>
+        <v>0.1603672118596093</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.216051702831353</v>
+        <v>0.2164642532568403</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>148</v>
@@ -905,19 +905,19 @@
         <v>157306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>134845</v>
+        <v>133396</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>180971</v>
+        <v>179718</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1600724070963659</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1372165227761653</v>
+        <v>0.1357419920332675</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1841532627094819</v>
+        <v>0.182878103870244</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>280</v>
@@ -926,19 +926,19 @@
         <v>296564</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>267047</v>
+        <v>263862</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>327259</v>
+        <v>329363</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1715741341755651</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.154497270414055</v>
+        <v>0.1526545276027978</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1893322056155277</v>
+        <v>0.190549641165261</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>62561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49324</v>
+        <v>48973</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>78941</v>
+        <v>79003</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08388745089027264</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0661381749001861</v>
+        <v>0.06566785462393057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1058517507082141</v>
+        <v>0.1059349670297648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -976,19 +976,19 @@
         <v>44468</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32409</v>
+        <v>32483</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58326</v>
+        <v>59355</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04525022116911144</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03297896393619008</v>
+        <v>0.03305457679629065</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05935118544303252</v>
+        <v>0.06039876832534546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -997,19 +997,19 @@
         <v>107029</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87758</v>
+        <v>87189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>128349</v>
+        <v>128207</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06192058847225297</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05077120335619766</v>
+        <v>0.05044207380767259</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07425480522599218</v>
+        <v>0.07417256641460622</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>5925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2054</v>
+        <v>1983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13131</v>
+        <v>11902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00794457767174925</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002754856836021076</v>
+        <v>0.002659001303701057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01760784189621027</v>
+        <v>0.01595984946613459</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4105</v>
+        <v>4150</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0008375763021055471</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.004176750830233059</v>
+        <v>0.004223265951110127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1068,19 +1068,19 @@
         <v>6748</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2936</v>
+        <v>2905</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12829</v>
+        <v>14282</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003903953578916422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001698735866000064</v>
+        <v>0.001680484598079161</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.007421796473246172</v>
+        <v>0.008262924107437345</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>460901</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>424485</v>
+        <v>422785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>499509</v>
+        <v>500212</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2229488214378626</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.205333298442788</v>
+        <v>0.2045113247951645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2416243362239854</v>
+        <v>0.2419643755968335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>475</v>
@@ -1193,19 +1193,19 @@
         <v>521895</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>480012</v>
+        <v>479812</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>562605</v>
+        <v>561792</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2637422990242301</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2425768736816724</v>
+        <v>0.242475493068592</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2843156820262752</v>
+        <v>0.2839048203253344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>904</v>
@@ -1214,19 +1214,19 @@
         <v>982796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>928731</v>
+        <v>930774</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1044249</v>
+        <v>1040966</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2428994778476282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2295374121873887</v>
+        <v>0.2300422960364204</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.25808774220881</v>
+        <v>0.2572762952319729</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>626880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>583331</v>
+        <v>585973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668974</v>
+        <v>671977</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3032367106121435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2821710133643499</v>
+        <v>0.2834492424237746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3235988627774645</v>
+        <v>0.3250513422159673</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>619</v>
@@ -1264,19 +1264,19 @@
         <v>643540</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596458</v>
+        <v>602983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>685337</v>
+        <v>690929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3252165466047925</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3014233637853045</v>
+        <v>0.3047208219013594</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3463390155589349</v>
+        <v>0.3491645492818927</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1204</v>
@@ -1285,19 +1285,19 @@
         <v>1270420</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1214084</v>
+        <v>1208580</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1330236</v>
+        <v>1329308</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3139862760274461</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3000627645882181</v>
+        <v>0.298702349746621</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3287699984939801</v>
+        <v>0.3285405445464833</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>681427</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>640382</v>
+        <v>636612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>724335</v>
+        <v>725863</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3296226816584523</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3097680051895929</v>
+        <v>0.307944388234282</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3503779733563413</v>
+        <v>0.351117168500773</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>617</v>
@@ -1335,19 +1335,19 @@
         <v>622564</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>580763</v>
+        <v>581047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>661427</v>
+        <v>667900</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3146163884458561</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2934915663822855</v>
+        <v>0.2936351176795866</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3342558743034551</v>
+        <v>0.337526699875181</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1260</v>
@@ -1356,19 +1356,19 @@
         <v>1303992</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1246344</v>
+        <v>1240875</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1365102</v>
+        <v>1363785</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3222836309674479</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3080359260749207</v>
+        <v>0.3066842544532186</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.337387044157377</v>
+        <v>0.3370615655413221</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>263079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>232542</v>
+        <v>235273</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>297795</v>
+        <v>295822</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1272574762441568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1124860481690746</v>
+        <v>0.1138071107652788</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1440504931734023</v>
+        <v>0.1430962691625072</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>168</v>
@@ -1406,19 +1406,19 @@
         <v>169697</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>146080</v>
+        <v>146401</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194980</v>
+        <v>195610</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08575725839444635</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07382247733679213</v>
+        <v>0.0739845381697783</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09853446200255161</v>
+        <v>0.0988523810993928</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>421</v>
@@ -1427,19 +1427,19 @@
         <v>432776</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>396581</v>
+        <v>397310</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>476042</v>
+        <v>473790</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1069611780063551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09801573151195724</v>
+        <v>0.09819590135043603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1176545892719806</v>
+        <v>0.1170978677879879</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>35008</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24666</v>
+        <v>25440</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48945</v>
+        <v>47761</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0169343100473848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01193157522552918</v>
+        <v>0.01230612169204469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02367593467858589</v>
+        <v>0.02310309565410495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1477,19 +1477,19 @@
         <v>21109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>13372</v>
+        <v>12772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31660</v>
+        <v>30524</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01066750753067491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006757565857349359</v>
+        <v>0.006454532247874012</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01599961389513535</v>
+        <v>0.01542535758312512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1498,19 +1498,19 @@
         <v>56117</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>42732</v>
+        <v>43737</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>74284</v>
+        <v>72405</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01386943715112271</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01056124226622675</v>
+        <v>0.01080955738559167</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01835946050863219</v>
+        <v>0.0178950345005889</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>131399</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111232</v>
+        <v>112826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155005</v>
+        <v>154350</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2415574928852676</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2044831775187589</v>
+        <v>0.2074147606531858</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2849539781650881</v>
+        <v>0.2837496111460768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -1623,19 +1623,19 @@
         <v>131267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110853</v>
+        <v>112072</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>153209</v>
+        <v>153955</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2398978761368391</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.202590035998095</v>
+        <v>0.2048173950463306</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2799968727384161</v>
+        <v>0.2813608593642113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -1644,19 +1644,19 @@
         <v>262666</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>233986</v>
+        <v>234146</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>294912</v>
+        <v>295201</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.240725240003494</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2144403917099657</v>
+        <v>0.214587850465755</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2702774752011854</v>
+        <v>0.2705428366141477</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>177952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>156478</v>
+        <v>153800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202246</v>
+        <v>199685</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3271380206408627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2876621229607606</v>
+        <v>0.2827385500256952</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3717994214801743</v>
+        <v>0.3670912260539575</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -1694,19 +1694,19 @@
         <v>209688</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187743</v>
+        <v>187564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>233785</v>
+        <v>233413</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3832155002898875</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3431099298572062</v>
+        <v>0.3427823287573242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4272543842630666</v>
+        <v>0.4265744069452352</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>365</v>
@@ -1715,19 +1715,19 @@
         <v>387639</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>354632</v>
+        <v>353371</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>420793</v>
+        <v>420668</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.355259358946645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.325009479656992</v>
+        <v>0.3238530231620535</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3856433309578726</v>
+        <v>0.3855292511355275</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>188913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166012</v>
+        <v>167487</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>212328</v>
+        <v>213922</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3472893557723332</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3051892339792693</v>
+        <v>0.307900893837342</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3903343849740186</v>
+        <v>0.3932650508880448</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>164</v>
@@ -1765,19 +1765,19 @@
         <v>166998</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146301</v>
+        <v>145724</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>190292</v>
+        <v>189066</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3051971202331368</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2673732030168354</v>
+        <v>0.2663174224983467</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3477685856368847</v>
+        <v>0.3455281527478156</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>338</v>
@@ -1786,19 +1786,19 @@
         <v>355911</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>326135</v>
+        <v>323332</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>391557</v>
+        <v>386047</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3261812388766945</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2988926403064208</v>
+        <v>0.2963232517756549</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3588498006487182</v>
+        <v>0.3537996250666014</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>41112</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29900</v>
+        <v>30273</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53992</v>
+        <v>54255</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07557898811218818</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05496756726157993</v>
+        <v>0.05565302674260046</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09925622375686539</v>
+        <v>0.09974022885231612</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>35</v>
@@ -1836,19 +1836,19 @@
         <v>35371</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25196</v>
+        <v>24879</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47905</v>
+        <v>48611</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06464236915867512</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04604772842211646</v>
+        <v>0.04546849479644158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08754802756006844</v>
+        <v>0.0888390354784904</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -1857,19 +1857,19 @@
         <v>76483</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61563</v>
+        <v>61065</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96325</v>
+        <v>93981</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0700945697068307</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05642012281796144</v>
+        <v>0.05596379662099733</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0882789531847769</v>
+        <v>0.08613059055186859</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>4589</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1651</v>
+        <v>1141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11576</v>
+        <v>12249</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008436142589348414</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003034969706735471</v>
+        <v>0.002097803218415123</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02128054278782357</v>
+        <v>0.02251723000064291</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1907,19 +1907,19 @@
         <v>3856</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9510</v>
+        <v>9552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007047134181461513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00178933925231699</v>
+        <v>0.001787761527444461</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01738073916073012</v>
+        <v>0.01745613835767711</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -1928,19 +1928,19 @@
         <v>8445</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3819</v>
+        <v>3844</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15797</v>
+        <v>16581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007739592466335835</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003500203377884695</v>
+        <v>0.00352336119227475</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01447763728882821</v>
+        <v>0.01519639365456122</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>946160</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>893197</v>
+        <v>893729</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1000738</v>
+        <v>998873</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2818439871292547</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2660674808667208</v>
+        <v>0.2662259410523313</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2981019714175726</v>
+        <v>0.2975464323159301</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1076</v>
@@ -2053,19 +2053,19 @@
         <v>1205654</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1150235</v>
+        <v>1147005</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1263091</v>
+        <v>1264036</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3436181244726501</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3278233578406277</v>
+        <v>0.3269027211056315</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3599878548766574</v>
+        <v>0.3602570985665803</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1993</v>
@@ -2074,19 +2074,19 @@
         <v>2151814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2076327</v>
+        <v>2068725</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2233365</v>
+        <v>2228051</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3134133832039754</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3024186559945584</v>
+        <v>0.3013114776617065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3252914209223765</v>
+        <v>0.3245174494681486</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>989000</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>938474</v>
+        <v>931136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1045146</v>
+        <v>1042939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.294605496590165</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2795546441333997</v>
+        <v>0.2773687530135979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3113302023721115</v>
+        <v>0.3106727315080097</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1030</v>
@@ -2124,19 +2124,19 @@
         <v>1080857</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1032109</v>
+        <v>1022751</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1141545</v>
+        <v>1136266</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3080502061036091</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2941567791567553</v>
+        <v>0.2914897086200087</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3253464858997818</v>
+        <v>0.3238421278276946</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1962</v>
@@ -2145,19 +2145,19 @@
         <v>2069857</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1994902</v>
+        <v>1994165</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2149198</v>
+        <v>2145782</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3014763551402417</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2905590022620035</v>
+        <v>0.2904517381665164</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3130323251334528</v>
+        <v>0.3125347651141834</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>1009599</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>957680</v>
+        <v>953950</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1066252</v>
+        <v>1062880</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3007414497587166</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2852756678709701</v>
+        <v>0.284164666279261</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3176172754586778</v>
+        <v>0.3166127787625868</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>929</v>
@@ -2195,19 +2195,19 @@
         <v>946868</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>892811</v>
+        <v>893285</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>998752</v>
+        <v>996441</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2698627411177555</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2544561552057366</v>
+        <v>0.2545910476289697</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2846498874031269</v>
+        <v>0.2839911123731912</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1878</v>
@@ -2216,19 +2216,19 @@
         <v>1956467</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1882448</v>
+        <v>1884881</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2029516</v>
+        <v>2033985</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2849610240776023</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2741800653824055</v>
+        <v>0.2745344027392324</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2956005691805436</v>
+        <v>0.2962514605233744</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>366752</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>329728</v>
+        <v>331624</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>402630</v>
+        <v>405371</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1092488686099102</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09822020279064736</v>
+        <v>0.0987848032922692</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1199362398380461</v>
+        <v>0.1207526742526001</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>246</v>
@@ -2266,19 +2266,19 @@
         <v>249536</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>220976</v>
+        <v>220810</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>282768</v>
+        <v>284195</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07111918510271417</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06297940803485869</v>
+        <v>0.06293217314522208</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08059044052902013</v>
+        <v>0.08099717040753794</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>601</v>
@@ -2287,19 +2287,19 @@
         <v>616288</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>571293</v>
+        <v>571141</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>661801</v>
+        <v>663780</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08976286471557791</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08320921011179659</v>
+        <v>0.08318712656769396</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09639188577458263</v>
+        <v>0.09668010006138456</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>45522</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33681</v>
+        <v>33869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>61479</v>
+        <v>60970</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01356019791195354</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01003290912375788</v>
+        <v>0.01008905286973416</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01831344817374139</v>
+        <v>0.01816198373039312</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -2337,19 +2337,19 @@
         <v>25788</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16406</v>
+        <v>17549</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>37644</v>
+        <v>36384</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007349743203271117</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.004675753459674272</v>
+        <v>0.005001551294766105</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01072865545160686</v>
+        <v>0.01036960461312368</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>70</v>
@@ -2358,19 +2358,19 @@
         <v>71310</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>55064</v>
+        <v>55558</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>90137</v>
+        <v>89068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01038637286260266</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008020139274725762</v>
+        <v>0.008092094070466774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01312847479823265</v>
+        <v>0.01297278109029106</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>255010</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>232834</v>
+        <v>231467</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>278161</v>
+        <v>277633</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4418730606045193</v>
+        <v>0.4418730606045194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4034474270069004</v>
+        <v>0.4010774215570337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4819878122709457</v>
+        <v>0.4810735710010608</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>876</v>
@@ -2722,19 +2722,19 @@
         <v>471272</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>447206</v>
+        <v>447547</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>494005</v>
+        <v>490555</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5732973400094064</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.544021685859102</v>
+        <v>0.5444354581552966</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6009514852542123</v>
+        <v>0.5967542379856959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1229</v>
@@ -2743,19 +2743,19 @@
         <v>726282</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>692588</v>
+        <v>692630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756657</v>
+        <v>758240</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5190883088689239</v>
+        <v>0.5190883088689238</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4950065671406476</v>
+        <v>0.4950363000304827</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5407975706257441</v>
+        <v>0.5419291437748955</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>180974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159855</v>
+        <v>160385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>206001</v>
+        <v>203957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3135857999553766</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2769913924927385</v>
+        <v>0.2779099919192368</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3569517217179443</v>
+        <v>0.3534089247183367</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>333</v>
@@ -2793,19 +2793,19 @@
         <v>201503</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>181142</v>
+        <v>183351</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220893</v>
+        <v>222656</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.24512565521803</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.220356803486868</v>
+        <v>0.2230440697254314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.268713854319787</v>
+        <v>0.2708587085475112</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>527</v>
@@ -2814,19 +2814,19 @@
         <v>382477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>352009</v>
+        <v>354345</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>413657</v>
+        <v>410759</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2733636500143762</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2515880162707236</v>
+        <v>0.2532573111230308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.295648889356677</v>
+        <v>0.2935772789574272</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>100364</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83300</v>
+        <v>83649</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>122247</v>
+        <v>121550</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1739077516520273</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1443387733196949</v>
+        <v>0.1449442234569046</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.211825418223634</v>
+        <v>0.2106179715061081</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>190</v>
@@ -2864,19 +2864,19 @@
         <v>127767</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110845</v>
+        <v>111823</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>146030</v>
+        <v>147027</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1554269435912995</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1348411725279674</v>
+        <v>0.1360312877178055</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1776439890911739</v>
+        <v>0.17885712460924</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>293</v>
@@ -2885,19 +2885,19 @@
         <v>228131</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>201384</v>
+        <v>202561</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>254883</v>
+        <v>254425</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.163049786982199</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1439330054596691</v>
+        <v>0.1447745418317882</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1821695363793491</v>
+        <v>0.1818424529414264</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>34815</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24775</v>
+        <v>25091</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49238</v>
+        <v>49948</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06032692137914659</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04292875523379187</v>
+        <v>0.043477442586398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08531805653572444</v>
+        <v>0.08654814495191876</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2935,19 +2935,19 @@
         <v>21496</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14243</v>
+        <v>14048</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31994</v>
+        <v>30856</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02615006118126418</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01732675834374902</v>
+        <v>0.01708937571549357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03892028721048695</v>
+        <v>0.03753544202951212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>62</v>
@@ -2956,19 +2956,19 @@
         <v>56312</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40908</v>
+        <v>43196</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72274</v>
+        <v>74426</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04024710996966355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02923745543340287</v>
+        <v>0.03087285719081399</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0516558993545274</v>
+        <v>0.05319400713263436</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>5948</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2411</v>
+        <v>1835</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14171</v>
+        <v>13602</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01030646640893021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00417789761182821</v>
+        <v>0.003179500626321489</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02455448382545701</v>
+        <v>0.02356984602302397</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3019,19 +3019,19 @@
         <v>5948</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2272</v>
+        <v>2283</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14059</v>
+        <v>14837</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.004251144164837316</v>
+        <v>0.004251144164837314</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001623924171921469</v>
+        <v>0.001631500021531211</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01004838865883116</v>
+        <v>0.01060428040914239</v>
       </c>
     </row>
     <row r="9">
@@ -3123,19 +3123,19 @@
         <v>459588</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>421744</v>
+        <v>420677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>503442</v>
+        <v>504170</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2062873521582198</v>
+        <v>0.2062873521582199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1893008415151276</v>
+        <v>0.1888223415858283</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2259712248108914</v>
+        <v>0.2262981951962738</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>889</v>
@@ -3144,19 +3144,19 @@
         <v>578355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>543322</v>
+        <v>541797</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>616786</v>
+        <v>613796</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2672282567720802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2510415584013034</v>
+        <v>0.2503368012833243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2849856325322329</v>
+        <v>0.2836041245692324</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1389</v>
@@ -3165,19 +3165,19 @@
         <v>1037942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>982123</v>
+        <v>985404</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1089507</v>
+        <v>1089862</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.236316378508989</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2236075017040136</v>
+        <v>0.2243544774231735</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2480565594962915</v>
+        <v>0.2481372189441129</v>
       </c>
     </row>
     <row r="11">
@@ -3194,19 +3194,19 @@
         <v>867370</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>815399</v>
+        <v>812550</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>917536</v>
+        <v>917703</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3893218050700797</v>
+        <v>0.3893218050700796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3659944365956889</v>
+        <v>0.3647152791322128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4118389251030791</v>
+        <v>0.4119135432978099</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1254</v>
@@ -3215,19 +3215,19 @@
         <v>904865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>865086</v>
+        <v>863934</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>952662</v>
+        <v>948464</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4180918602722124</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3997122029177945</v>
+        <v>0.3991798538865464</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4401768160821599</v>
+        <v>0.4382369814558166</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2057</v>
@@ -3236,19 +3236,19 @@
         <v>1772235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1705236</v>
+        <v>1706236</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1848098</v>
+        <v>1842598</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4034984365338244</v>
+        <v>0.4034984365338246</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3882442508967073</v>
+        <v>0.388471943135284</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4207708283804628</v>
+        <v>0.4195184361108213</v>
       </c>
     </row>
     <row r="12">
@@ -3265,19 +3265,19 @@
         <v>710898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>658477</v>
+        <v>658258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>763837</v>
+        <v>767520</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3190888328763495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.295559319355672</v>
+        <v>0.2954609831292167</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3428503632209448</v>
+        <v>0.3445038128325553</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>661</v>
@@ -3286,19 +3286,19 @@
         <v>583019</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>543584</v>
+        <v>538538</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>623186</v>
+        <v>622576</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2693834369582346</v>
+        <v>0.2693834369582345</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2511626281865271</v>
+        <v>0.2488311277651708</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2879425765591256</v>
+        <v>0.2876604870191942</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1214</v>
@@ -3307,19 +3307,19 @@
         <v>1293917</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1230296</v>
+        <v>1229116</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1357814</v>
+        <v>1357303</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2945961763715261</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.280111094506729</v>
+        <v>0.2798423313763589</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3091440773405658</v>
+        <v>0.3090277363627345</v>
       </c>
     </row>
     <row r="13">
@@ -3336,19 +3336,19 @@
         <v>163145</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>132165</v>
+        <v>133220</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196358</v>
+        <v>198570</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07322814225448226</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05932281966462129</v>
+        <v>0.05979625016354758</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08813607852316309</v>
+        <v>0.08912893709275768</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -3357,19 +3357,19 @@
         <v>86370</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70340</v>
+        <v>68539</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>109260</v>
+        <v>106537</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03990736449770244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03250033050595126</v>
+        <v>0.03166831827836575</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05048368899371545</v>
+        <v>0.04922534923166087</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>207</v>
@@ -3378,19 +3378,19 @@
         <v>249515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>214520</v>
+        <v>214177</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>286962</v>
+        <v>289931</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05680911271059048</v>
+        <v>0.05680911271059049</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04884140282902159</v>
+        <v>0.04876331390062531</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06533496140573933</v>
+        <v>0.06601078675891195</v>
       </c>
     </row>
     <row r="14">
@@ -3407,19 +3407,19 @@
         <v>26899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16662</v>
+        <v>16256</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41709</v>
+        <v>40063</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01207386764086874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007478887744118087</v>
+        <v>0.007296756955675168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01872106235772806</v>
+        <v>0.01798232823440319</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -3428,19 +3428,19 @@
         <v>11663</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5785</v>
+        <v>5595</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21989</v>
+        <v>21752</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.005389081499770326</v>
+        <v>0.005389081499770327</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002672996975241154</v>
+        <v>0.002585009361725084</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01016013220088111</v>
+        <v>0.01005066157998322</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -3449,19 +3449,19 @@
         <v>38563</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26315</v>
+        <v>25516</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57173</v>
+        <v>55725</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.008779895875069827</v>
+        <v>0.008779895875069832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005991405768068628</v>
+        <v>0.005809362673174554</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01301705397336538</v>
+        <v>0.01268743243313454</v>
       </c>
     </row>
     <row r="15">
@@ -3553,19 +3553,19 @@
         <v>200432</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>176789</v>
+        <v>177730</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>228916</v>
+        <v>228079</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2816691891016566</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2484428673523375</v>
+        <v>0.2497661178077846</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3216976875216644</v>
+        <v>0.3205221980747703</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>337</v>
@@ -3574,19 +3574,19 @@
         <v>229695</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207772</v>
+        <v>208870</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>250951</v>
+        <v>251321</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3134921998510074</v>
+        <v>0.3134921998510073</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2835714517489181</v>
+        <v>0.285069468873359</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3425026015978918</v>
+        <v>0.3430079393568564</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>555</v>
@@ -3595,19 +3595,19 @@
         <v>430127</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>396079</v>
+        <v>396984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>461906</v>
+        <v>462487</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2978132647019965</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2742389069061262</v>
+        <v>0.2748657150845455</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3198165552477669</v>
+        <v>0.3202188474982836</v>
       </c>
     </row>
     <row r="17">
@@ -3624,19 +3624,19 @@
         <v>326935</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>294963</v>
+        <v>298725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>354191</v>
+        <v>354363</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4594444054709033</v>
+        <v>0.4594444054709032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4145136489141304</v>
+        <v>0.4198012116657879</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.497747530282552</v>
+        <v>0.4979890284854488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>488</v>
@@ -3645,19 +3645,19 @@
         <v>352468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>329308</v>
+        <v>329070</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>379275</v>
+        <v>375670</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4810553766143193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4494465377346009</v>
+        <v>0.4491210185702432</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5176430119757053</v>
+        <v>0.5127222521860931</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>802</v>
@@ -3666,19 +3666,19 @@
         <v>679403</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>642734</v>
+        <v>641651</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>716850</v>
+        <v>717887</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4704078292237356</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4450193884124247</v>
+        <v>0.4442691443654119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4963362334456108</v>
+        <v>0.497054125274036</v>
       </c>
     </row>
     <row r="18">
@@ -3695,19 +3695,19 @@
         <v>152119</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>128339</v>
+        <v>127408</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>179667</v>
+        <v>177435</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2137737749783988</v>
+        <v>0.2137737749783987</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1803554993952882</v>
+        <v>0.1790470045156798</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2524877043582412</v>
+        <v>0.2493510718026214</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>154</v>
@@ -3716,19 +3716,19 @@
         <v>126355</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>107159</v>
+        <v>107603</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>145209</v>
+        <v>147487</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1724522552746562</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1462534100292552</v>
+        <v>0.1468584471130624</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1981841194285931</v>
+        <v>0.2012936384965138</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>279</v>
@@ -3737,19 +3737,19 @@
         <v>278474</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>244415</v>
+        <v>250010</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>309648</v>
+        <v>314028</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1928110275101453</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1692293057628872</v>
+        <v>0.1731028664599916</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2143953481303807</v>
+        <v>0.2174281124184687</v>
       </c>
     </row>
     <row r="19">
@@ -3766,19 +3766,19 @@
         <v>28554</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17224</v>
+        <v>18679</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46022</v>
+        <v>47020</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04012683244864108</v>
+        <v>0.04012683244864107</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02420507735214695</v>
+        <v>0.02624953897512528</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06467524159028729</v>
+        <v>0.06607770929088425</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -3787,19 +3787,19 @@
         <v>22728</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13747</v>
+        <v>13975</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35343</v>
+        <v>36822</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03102025918302539</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01876171185392162</v>
+        <v>0.01907304735992508</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04823631761059823</v>
+        <v>0.05025573916409651</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -3808,19 +3808,19 @@
         <v>51282</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36721</v>
+        <v>37690</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>70969</v>
+        <v>71891</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03550699278550885</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02542489312738538</v>
+        <v>0.02609567849174685</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04913766972830809</v>
+        <v>0.0497759765229397</v>
       </c>
     </row>
     <row r="20">
@@ -3837,19 +3837,19 @@
         <v>3548</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9423</v>
+        <v>9372</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.004985798000400238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001605589816266808</v>
+        <v>0.00161208442692579</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01324168983745178</v>
+        <v>0.01316988919824741</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5936</v>
+        <v>5668</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.001979909076991725</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.008101714360896866</v>
+        <v>0.007735758661828647</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -3879,19 +3879,19 @@
         <v>4999</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1609</v>
+        <v>1626</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11990</v>
+        <v>12258</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.003460885778613639</v>
+        <v>0.003460885778613638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001114245664883305</v>
+        <v>0.001125810063892657</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008301826933131581</v>
+        <v>0.008487576551737385</v>
       </c>
     </row>
     <row r="21">
@@ -3983,19 +3983,19 @@
         <v>915030</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>862043</v>
+        <v>861706</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>973775</v>
+        <v>967047</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2602031031915855</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2451353989006146</v>
+        <v>0.2450395270382609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2769079897267095</v>
+        <v>0.2749948975922963</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2102</v>
@@ -4004,19 +4004,19 @@
         <v>1279322</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1223832</v>
+        <v>1230649</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1326554</v>
+        <v>1330250</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3439954802162862</v>
+        <v>0.3439954802162861</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3290749809615816</v>
+        <v>0.3309080850632705</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3566956356249313</v>
+        <v>0.3576895495469342</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3173</v>
@@ -4025,19 +4025,19 @@
         <v>2194352</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2122656</v>
+        <v>2123573</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2273941</v>
+        <v>2268442</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3032712809590344</v>
+        <v>0.3032712809590345</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2933625278961755</v>
+        <v>0.2934892458329261</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3142708867916077</v>
+        <v>0.3135108887821291</v>
       </c>
     </row>
     <row r="23">
@@ -4054,19 +4054,19 @@
         <v>1375280</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1307106</v>
+        <v>1313214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1441617</v>
+        <v>1440920</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3910820694389986</v>
+        <v>0.3910820694389987</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3716958791622241</v>
+        <v>0.3734327594440219</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.40994601731319</v>
+        <v>0.4097478417504752</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2075</v>
@@ -4075,19 +4075,19 @@
         <v>1458835</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1405138</v>
+        <v>1406780</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1512487</v>
+        <v>1514414</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3922646532387608</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.377826193302605</v>
+        <v>0.3782677434564744</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4066909989903362</v>
+        <v>0.4072093408801737</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3386</v>
@@ -4096,19 +4096,19 @@
         <v>2834115</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2753754</v>
+        <v>2750835</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2920278</v>
+        <v>2916561</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3916899019307066</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.380583640931607</v>
+        <v>0.3801802421756885</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4035981770560152</v>
+        <v>0.4030845062995589</v>
       </c>
     </row>
     <row r="24">
@@ -4125,19 +4125,19 @@
         <v>963381</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>901020</v>
+        <v>901392</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1032319</v>
+        <v>1028333</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2739524516402809</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2562189262849931</v>
+        <v>0.2563247783967412</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2935560065249516</v>
+        <v>0.2924223868943313</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1005</v>
@@ -4146,19 +4146,19 @@
         <v>837141</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>787245</v>
+        <v>791037</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>885118</v>
+        <v>881828</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2250980204301197</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2116815802022764</v>
+        <v>0.2127010456993595</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2379985138619741</v>
+        <v>0.2371137452301163</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1786</v>
@@ -4167,19 +4167,19 @@
         <v>1800523</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1719379</v>
+        <v>1727849</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1880130</v>
+        <v>1882440</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.248841917689602</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2376274619594843</v>
+        <v>0.2387980997483988</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2598440893172233</v>
+        <v>0.260163377730863</v>
       </c>
     </row>
     <row r="25">
@@ -4196,19 +4196,19 @@
         <v>226514</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>191816</v>
+        <v>192521</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>264661</v>
+        <v>267810</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0644128345399656</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05454574135372874</v>
+        <v>0.05474638189812254</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07526033632929452</v>
+        <v>0.07615605347425533</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>143</v>
@@ -4217,19 +4217,19 @@
         <v>130595</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>109518</v>
+        <v>109731</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>155401</v>
+        <v>155595</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03511560614419908</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02944806628872183</v>
+        <v>0.02950556482346361</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0417855408148049</v>
+        <v>0.04183779461033819</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>311</v>
@@ -4238,19 +4238,19 @@
         <v>357109</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>315621</v>
+        <v>318060</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>406569</v>
+        <v>401175</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04935444515604258</v>
+        <v>0.04935444515604259</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04362048600111775</v>
+        <v>0.04395766576944157</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05619007091400526</v>
+        <v>0.05544449055293171</v>
       </c>
     </row>
     <row r="26">
@@ -4267,19 +4267,19 @@
         <v>36395</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23640</v>
+        <v>24103</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>52244</v>
+        <v>53557</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01034954118916938</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006722423398668236</v>
+        <v>0.006854017574771993</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01485636519865328</v>
+        <v>0.01522990365925304</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -4288,19 +4288,19 @@
         <v>13114</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7254</v>
+        <v>7011</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>23698</v>
+        <v>23285</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.003526239970634306</v>
+        <v>0.003526239970634305</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001950590213652193</v>
+        <v>0.001885117794870462</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.006372218100595976</v>
+        <v>0.006261107898600077</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>42</v>
@@ -4309,19 +4309,19 @@
         <v>49509</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36427</v>
+        <v>36196</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>66465</v>
+        <v>69337</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.006842454264614268</v>
+        <v>0.006842454264614271</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00503446775890337</v>
+        <v>0.0050024797822313</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009185868035783468</v>
+        <v>0.009582736888437032</v>
       </c>
     </row>
     <row r="27">
